--- a/excel/test/book3.xlsx
+++ b/excel/test/book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\pycharm\python-box\excel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C4970-0D19-4F21-A070-947CA5D1CB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA15365-EC51-4FD0-AB5F-00BC5AE46B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="1935" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
